--- a/dosyalar/uzfile/Teklif Formu.xlsx
+++ b/dosyalar/uzfile/Teklif Formu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>T.C.</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>mahkeme esas no</t>
+  </si>
+  <si>
+    <t>tel</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="AZ54" sqref="AZ54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,6 +1062,7 @@
     <col min="45" max="45" width="9.140625" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="20.28515625" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="48" max="68" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
@@ -2037,6 +2041,9 @@
       <c r="AG21" s="58"/>
       <c r="AH21" s="58"/>
       <c r="AI21" s="59"/>
+      <c r="AT21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="81"/>
@@ -2058,9 +2065,9 @@
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
-      <c r="R22" s="60">
-        <f>AU12</f>
-        <v>0</v>
+      <c r="R22" s="60" t="str">
+        <f>AU12 &amp;" TEL: "&amp; AU21</f>
+        <v xml:space="preserve"> TEL: </v>
       </c>
       <c r="S22" s="61"/>
       <c r="T22" s="61"/>
